--- a/media/final_files/final.xlsx
+++ b/media/final_files/final.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="258">
   <si>
     <t>料號</t>
   </si>
@@ -74,12 +74,6 @@
     <t>原材不良</t>
   </si>
   <si>
-    <t>612075400G</t>
-  </si>
-  <si>
-    <t>防塵橡膠-下蓋,FD8166,明毅</t>
-  </si>
-  <si>
     <t>609054600G</t>
   </si>
   <si>
@@ -92,16 +86,7 @@
     <t>垂直旋轉座組,SD9366-AGLN,高譽</t>
   </si>
   <si>
-    <t>成型不良X2缺角X1成型不良X2缺角X1成型不良X2缺角X1成型不良X2缺角X1</t>
-  </si>
-  <si>
-    <t>600116401G</t>
-  </si>
-  <si>
-    <t>下蓋,MD8565N,益晟</t>
-  </si>
-  <si>
-    <t>脫漆*7脫漆*7脫漆*7脫漆*7脫漆*7脫漆*7脫漆*7脫漆*7脫漆*7</t>
+    <t>成型不良X2缺角X1</t>
   </si>
   <si>
     <t>602046400G</t>
@@ -110,10 +95,7 @@
     <t>鏡頭支架,SC8131,益晟</t>
   </si>
   <si>
-    <t>沒螺紋X1, 少螺孔X4沒螺紋X1, 少螺孔X4沒螺紋X1, 少螺孔X4沒螺紋X1, 少螺孔X4</t>
-  </si>
-  <si>
-    <t>防塵橡膠-下蓋,FD8166,</t>
+    <t>沒螺紋X1, 少螺孔X4</t>
   </si>
   <si>
     <t>602019300G</t>
@@ -128,7 +110,7 @@
     <t>鏡頭前蓋組,SD9366-AGLN,高譽</t>
   </si>
   <si>
-    <t>有白點X5, 溢膠X1, 夾膜X1有白點X5, 溢膠X1, 夾膜X1有白點X5, 溢膠X1, 夾膜X1有白點X5, 溢膠X1, 夾膜X1</t>
+    <t>有白點X5, 溢膠X1, 夾膜X1</t>
   </si>
   <si>
     <t>609038800G</t>
@@ -137,7 +119,7 @@
     <t>鏡頭座組合,IP8166,王派</t>
   </si>
   <si>
-    <t>C環緊X13C環緊X13C環緊X13C環緊X13</t>
+    <t>C環緊X13</t>
   </si>
   <si>
     <t>609053000G</t>
@@ -146,7 +128,7 @@
     <t>遮陽罩組合,IB9370-EHT-MEGA,TBD</t>
   </si>
   <si>
-    <t>軌道不良X8, 缺 角X1軌道不良X8, 缺 角X1軌道不良X8, 缺 角X1軌道不良X8, 缺 角X1</t>
+    <t>軌道不良X8, 缺 角X1</t>
   </si>
   <si>
     <t>610082100G</t>
@@ -155,49 +137,58 @@
     <t>線材固定座,SD9362,高譽</t>
   </si>
   <si>
+    <t>602014700G</t>
+  </si>
+  <si>
+    <t>鏡頭旋轉座,MD8531H,凱明</t>
+  </si>
+  <si>
+    <t>零件脫落X2</t>
+  </si>
+  <si>
     <t>610078210G</t>
   </si>
   <si>
     <t>IR LED透鏡(11MM),SD9364-EHL,雷笛克</t>
   </si>
   <si>
-    <t>602014700G</t>
-  </si>
-  <si>
-    <t>鏡頭旋轉座,MD8531H,凱明</t>
-  </si>
-  <si>
-    <t>零件脫落X2零件脫落X2零件脫落X2零件脫落X2</t>
-  </si>
-  <si>
     <t>600129100G</t>
   </si>
   <si>
     <t>下蓋組,SD9366-AGLN,高譽</t>
   </si>
   <si>
+    <t>602042400G</t>
+  </si>
+  <si>
+    <t>底蓋固定板,FD9172HVW-MRKI,TBD</t>
+  </si>
+  <si>
+    <t>銅柱不良X7</t>
+  </si>
+  <si>
     <t>600128800G</t>
   </si>
   <si>
     <t>筒機身,IB8365A-HT,TBD</t>
   </si>
   <si>
+    <t>600121500G</t>
+  </si>
+  <si>
+    <t>上蓋,IP9171-HP-VRNT,王派</t>
+  </si>
+  <si>
+    <t>缺角X1</t>
+  </si>
+  <si>
     <t>600134600G</t>
   </si>
   <si>
     <t>鏡頭前蓋組,SD9366V-AGLN,高譽</t>
   </si>
   <si>
-    <t>缺角X1溢膠x3缺角X1溢膠x3缺角X1溢膠x3缺角X1溢膠x3</t>
-  </si>
-  <si>
-    <t>600121500G</t>
-  </si>
-  <si>
-    <t>上蓋,IP9171-HP-VRNT,王派</t>
-  </si>
-  <si>
-    <t>缺角X1缺角X1缺角X1缺角X1</t>
+    <t>缺角X1溢膠x3</t>
   </si>
   <si>
     <t>610078200G</t>
@@ -206,13 +197,31 @@
     <t>IR LED透鏡(45MM),SD9364-EHL,雷笛克</t>
   </si>
   <si>
-    <t>602042400G</t>
-  </si>
-  <si>
-    <t>底蓋固定板,FD9172HVW-MRKI,TBD</t>
-  </si>
-  <si>
-    <t>銅柱不良X7銅柱不良X7銅柱不良X7銅柱不良X7</t>
+    <t>600135200G</t>
+  </si>
+  <si>
+    <t>鏡頭下蓋,MS9390-HV,鋁祥發</t>
+  </si>
+  <si>
+    <t>螺孔無牙X6</t>
+  </si>
+  <si>
+    <t>609032400G</t>
+  </si>
+  <si>
+    <t>上蓋組合,FE8181V-CLSS,益晟</t>
+  </si>
+  <si>
+    <t>600139700G</t>
+  </si>
+  <si>
+    <t>上蓋,FD9365-EHTV-CLSS,益晟</t>
+  </si>
+  <si>
+    <t>609020900G</t>
+  </si>
+  <si>
+    <t>下蓋組合,FD8362E-CLSS,鋁祥發</t>
   </si>
   <si>
     <t>600100000G</t>
@@ -221,10 +230,10 @@
     <t>前蓋,SD9362,高譽</t>
   </si>
   <si>
-    <t>600139700G</t>
-  </si>
-  <si>
-    <t>上蓋,FD9365-EHTV-CLSS,益晟</t>
+    <t>610095600G</t>
+  </si>
+  <si>
+    <t>線材固定片,FD9170-HT-MEGA,凱明</t>
   </si>
   <si>
     <t>609057400G</t>
@@ -233,31 +242,10 @@
     <t>機身組合,IB9367-HT,財榮</t>
   </si>
   <si>
-    <t>609032400G</t>
-  </si>
-  <si>
-    <t>上蓋組合,FE8181V-CLSS,益晟</t>
-  </si>
-  <si>
-    <t>600135200G</t>
-  </si>
-  <si>
-    <t>鏡頭下蓋,MS9390-HV,鋁祥發</t>
-  </si>
-  <si>
-    <t>螺孔無牙X6螺孔無牙X6螺孔無牙X6螺孔無牙X6</t>
-  </si>
-  <si>
-    <t>609020900G</t>
-  </si>
-  <si>
-    <t>下蓋組合,FD8362E-CLSS,鋁祥發</t>
-  </si>
-  <si>
-    <t>610095600G</t>
-  </si>
-  <si>
-    <t>線材固定片,FD9170-HT-MEGA,凱明</t>
+    <t>600124000G</t>
+  </si>
+  <si>
+    <t>上蓋,FD8365,益晟</t>
   </si>
   <si>
     <t>609027010G</t>
@@ -278,13 +266,28 @@
     <t>鏡頭上蓋,FD9172HVW-MRKI,TBD</t>
   </si>
   <si>
-    <t>定位點不良X1定位點不良X1定位點不良X1定位點不良X1</t>
-  </si>
-  <si>
-    <t>600124000G</t>
-  </si>
-  <si>
-    <t>上蓋,FD8365,益晟</t>
+    <t>定位點不良X1</t>
+  </si>
+  <si>
+    <t>609037100G</t>
+  </si>
+  <si>
+    <t>鏡頭後蓋模組組合,SD9364-EHL,鋁祥發</t>
+  </si>
+  <si>
+    <t>轉動異音X1</t>
+  </si>
+  <si>
+    <t>609025900G</t>
+  </si>
+  <si>
+    <t>上蓋組合,MD8562/62D(白),鋁祥發</t>
+  </si>
+  <si>
+    <t>609026902G</t>
+  </si>
+  <si>
+    <t>上蓋組合,MD8531H,鋁祥發</t>
   </si>
   <si>
     <t>609029101G</t>
@@ -293,10 +296,37 @@
     <t>上蓋組合,FE8181V,益晟</t>
   </si>
   <si>
-    <t>609026902G</t>
-  </si>
-  <si>
-    <t>上蓋組合,MD8531H,鋁祥發</t>
+    <t>600081700G</t>
+  </si>
+  <si>
+    <t>下蓋,IP8155/65HP,王派</t>
+  </si>
+  <si>
+    <t>609048200G</t>
+  </si>
+  <si>
+    <t>後蓋組合,SD9361,高譽</t>
+  </si>
+  <si>
+    <t>609048100G</t>
+  </si>
+  <si>
+    <t>右蓋組合,SD9366,高譽</t>
+  </si>
+  <si>
+    <t>縫過大X2</t>
+  </si>
+  <si>
+    <t>600096900G</t>
+  </si>
+  <si>
+    <t>殼體,SD9364-EHL,伸遠</t>
+  </si>
+  <si>
+    <t>609043100G</t>
+  </si>
+  <si>
+    <t>上蓋組合,FE8391V-AGLN,益晟</t>
   </si>
   <si>
     <t>602013900G</t>
@@ -305,52 +335,28 @@
     <t>加熱座,FD8371EV,王派</t>
   </si>
   <si>
-    <t>609025900G</t>
-  </si>
-  <si>
-    <t>上蓋組合,MD8562/62D(白),鋁祥發</t>
-  </si>
-  <si>
-    <t>609037100G</t>
-  </si>
-  <si>
-    <t>鏡頭後蓋模組組合,SD9364-EHL,鋁祥發</t>
-  </si>
-  <si>
-    <t>轉動異音X1轉動異音X1轉動異音X1轉動異音X1</t>
-  </si>
-  <si>
-    <t>609048100G</t>
-  </si>
-  <si>
-    <t>右蓋組合,SD9366,高譽</t>
-  </si>
-  <si>
-    <t>縫過大X2縫過大X2縫過大X2縫過大X2</t>
-  </si>
-  <si>
-    <t>609048200G</t>
-  </si>
-  <si>
-    <t>後蓋組合,SD9361,高譽</t>
-  </si>
-  <si>
-    <t>600096900G</t>
-  </si>
-  <si>
-    <t>殼體,SD9364-EHL,伸遠</t>
-  </si>
-  <si>
-    <t>600081700G</t>
-  </si>
-  <si>
-    <t>下蓋,IP8155/65HP,王派</t>
-  </si>
-  <si>
-    <t>609043100G</t>
-  </si>
-  <si>
-    <t>上蓋組合,FE8391V-AGLN,益晟</t>
+    <t>609044600G</t>
+  </si>
+  <si>
+    <t>下蓋組合,FE8391V-AGLN,益晟</t>
+  </si>
+  <si>
+    <t>609038501G</t>
+  </si>
+  <si>
+    <t>下蓋組合,IB9371-HT,廣達鑫</t>
+  </si>
+  <si>
+    <t>609038701G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 導爪支架組合,SD9364-EHL,業得</t>
+  </si>
+  <si>
+    <t>609056900G</t>
+  </si>
+  <si>
+    <t>前蓋組合,IB9367-HT,財榮</t>
   </si>
   <si>
     <t>609036200G</t>
@@ -359,36 +365,6 @@
     <t>下蓋組合,MD8563-EH,鋁祥發</t>
   </si>
   <si>
-    <t>609038501G</t>
-  </si>
-  <si>
-    <t>下蓋組合,IB9371-HT,廣達鑫</t>
-  </si>
-  <si>
-    <t>609038701G</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 導爪支架組合,SD9364-EHL,業得</t>
-  </si>
-  <si>
-    <t>609044600G</t>
-  </si>
-  <si>
-    <t>下蓋組合,FE8391V-AGLN,益晟</t>
-  </si>
-  <si>
-    <t>609056900G</t>
-  </si>
-  <si>
-    <t>前蓋組合,IB9367-HT,財榮</t>
-  </si>
-  <si>
-    <t>609017801G</t>
-  </si>
-  <si>
-    <t>旋轉支架組合,FD8136,</t>
-  </si>
-  <si>
     <t>612075600G</t>
   </si>
   <si>
@@ -401,7 +377,7 @@
     <t>STEP MOTOR CABLE,SD9364-EHL,敏謙</t>
   </si>
   <si>
-    <t>VAIR不會動X1, 線材不良X1, VAIR伸縮不良X1VAIR不會動X1, 線材不良X1, VAIR伸縮不良X1VAIR不會動X1, 線材不良X1, VAIR伸縮不良X1VAIR不會動X1, 線材不良X1, VAIR伸縮不良X1</t>
+    <t>VAIR不會動X1, 線材不良X1, VAIR伸縮不良X1</t>
   </si>
   <si>
     <t>600121400G</t>
@@ -410,24 +386,18 @@
     <t>下蓋,IP9171-HP-VRNT,王派</t>
   </si>
   <si>
-    <t>609049001G</t>
-  </si>
-  <si>
-    <t>上蓋組合,MD8565-N,益晟</t>
-  </si>
-  <si>
-    <t>602022800G</t>
-  </si>
-  <si>
-    <t>鏡頭組支架,FD9171-HT,元鐙</t>
-  </si>
-  <si>
     <t>600093701G</t>
   </si>
   <si>
     <t>電盒上蓋,MS8391,益晟</t>
   </si>
   <si>
+    <t>602035800G</t>
+  </si>
+  <si>
+    <t>固定支架,IB9370-EHT-MEGA,廷順</t>
+  </si>
+  <si>
     <t>600121600G</t>
   </si>
   <si>
@@ -440,22 +410,34 @@
     <t>鏡頭底蓋,FD9172HVW-MRKI,TBD</t>
   </si>
   <si>
+    <t>600127600G</t>
+  </si>
+  <si>
+    <t>鏡頭後蓋,IZ9361-EH,鋁祥發</t>
+  </si>
+  <si>
     <t>609048610G</t>
   </si>
   <si>
     <t>下蓋組合,FD9170-HT-MEGA(SIMPLE),廣達鑫</t>
   </si>
   <si>
-    <t>602035800G</t>
-  </si>
-  <si>
-    <t>固定支架,IB9370-EHT-MEGA,廷順</t>
-  </si>
-  <si>
-    <t>600127600G</t>
-  </si>
-  <si>
-    <t>鏡頭後蓋,IZ9361-EH,鋁祥發</t>
+    <t>609036600G</t>
+  </si>
+  <si>
+    <t>左蓋組合,SD9364-EHL,鋁祥發</t>
+  </si>
+  <si>
+    <t>609036400G</t>
+  </si>
+  <si>
+    <t>邊蓋組合,SD9364-EHL,鋁祥發</t>
+  </si>
+  <si>
+    <t>609054400G</t>
+  </si>
+  <si>
+    <t>後蓋組合,CC8371-HV,益晟</t>
   </si>
   <si>
     <t>600136800G</t>
@@ -464,22 +446,31 @@
     <t>鏡頭蓋,IP9167-HT-HTCH,億通</t>
   </si>
   <si>
-    <t>609054400G</t>
-  </si>
-  <si>
-    <t>後蓋組合,CC8371-HV,益晟</t>
-  </si>
-  <si>
-    <t>609036600G</t>
-  </si>
-  <si>
-    <t>左蓋組合,SD9364-EHL,鋁祥發</t>
-  </si>
-  <si>
-    <t>609036400G</t>
-  </si>
-  <si>
-    <t>邊蓋組合,SD9364-EHL,鋁祥發</t>
+    <t>600111400G</t>
+  </si>
+  <si>
+    <t>光學透明罩,MS8392-EV,富蘭</t>
+  </si>
+  <si>
+    <t>射出X1</t>
+  </si>
+  <si>
+    <t>600101200G</t>
+  </si>
+  <si>
+    <t>下蓋,FE9181,廣達鑫</t>
+  </si>
+  <si>
+    <t>609057500G</t>
+  </si>
+  <si>
+    <t>底蓋組合,FD9365,廣達鑫</t>
+  </si>
+  <si>
+    <t>600061800G</t>
+  </si>
+  <si>
+    <t>光學透明罩,FD8135H,趙城</t>
   </si>
   <si>
     <t>609055900G</t>
@@ -488,31 +479,37 @@
     <t>鏡頭座組合,FD9365,廣達鑫</t>
   </si>
   <si>
-    <t>609057500G</t>
-  </si>
-  <si>
-    <t>底蓋組合,FD9365,廣達鑫</t>
-  </si>
-  <si>
-    <t>600101200G</t>
-  </si>
-  <si>
-    <t>下蓋,FE9181,廣達鑫</t>
-  </si>
-  <si>
-    <t>600061800G</t>
-  </si>
-  <si>
-    <t>光學透明罩,FD8135H,趙城</t>
-  </si>
-  <si>
-    <t>600111400G</t>
-  </si>
-  <si>
-    <t>光學透明罩,MS8392-EV,富蘭</t>
-  </si>
-  <si>
-    <t>射出X1射出X1射出X1射出X1</t>
+    <t>602024600Z</t>
+  </si>
+  <si>
+    <t>水平垂直旋轉座組,SD9362,高譽</t>
+  </si>
+  <si>
+    <t>631414200Z</t>
+  </si>
+  <si>
+    <t>POWER CABLE,MD8531H,家穎</t>
+  </si>
+  <si>
+    <t>602034400G</t>
+  </si>
+  <si>
+    <t>鏡頭座,IB9370-EHT-MEGA,富優技研</t>
+  </si>
+  <si>
+    <t>631412701Z</t>
+  </si>
+  <si>
+    <t>IO CABLE,IB9371-HT,旭航</t>
+  </si>
+  <si>
+    <t>612009600G</t>
+  </si>
+  <si>
+    <t>HOUSING 橡膠,VS8801,又興</t>
+  </si>
+  <si>
+    <t>多料X1</t>
   </si>
   <si>
     <t>600069100G</t>
@@ -521,19 +518,7 @@
     <t>下蓋,IP8162P-CLSS,益晟</t>
   </si>
   <si>
-    <t>無螺孔X1無螺孔X1無螺孔X1無螺孔X1</t>
-  </si>
-  <si>
-    <t>602024600Z</t>
-  </si>
-  <si>
-    <t>水平垂直旋轉座組,SD9362,高譽</t>
-  </si>
-  <si>
-    <t>631414200Z</t>
-  </si>
-  <si>
-    <t>POWER CABLE,MD8531H,家穎</t>
+    <t>無螺孔X1</t>
   </si>
   <si>
     <t>602044700G</t>
@@ -542,40 +527,103 @@
     <t>水平旋轉座組,SD9366-AGLN,高譽</t>
   </si>
   <si>
-    <t>631412701Z</t>
-  </si>
-  <si>
-    <t>IO CABLE,IB9371-HT,旭航</t>
-  </si>
-  <si>
-    <t>612009600G</t>
-  </si>
-  <si>
-    <t>HOUSING 橡膠,VS8801,又興</t>
-  </si>
-  <si>
-    <t>多料X1多料X1多料X1多料X1</t>
-  </si>
-  <si>
-    <t>602034400G</t>
-  </si>
-  <si>
-    <t>鏡頭座,IB9370-EHT-MEGA,富優技研</t>
-  </si>
-  <si>
-    <t>609017901G</t>
-  </si>
-  <si>
-    <t>底座組合,FD8136</t>
-  </si>
-  <si>
-    <t>609050300G</t>
-  </si>
-  <si>
-    <t>上蓋組合,FD9371-EHTV-VRNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
+    <t>631214900G</t>
+  </si>
+  <si>
+    <t>CMOS BUS 線材,FD8362E,萬旭</t>
+  </si>
+  <si>
+    <t>609047900G</t>
+  </si>
+  <si>
+    <t>IR LED後蓋組合,SD9366,高譽</t>
+  </si>
+  <si>
+    <t>600112800G</t>
+  </si>
+  <si>
+    <t>上蓋,ND9541P,雄業</t>
+  </si>
+  <si>
+    <t>600112100G</t>
+  </si>
+  <si>
+    <t>鋁擠型,IB9370-EHT-MEGA,王派</t>
+  </si>
+  <si>
+    <t>軌道不良X1</t>
+  </si>
+  <si>
+    <t>600082400G</t>
+  </si>
+  <si>
+    <t>光學透明罩,FD8371V,趙城</t>
+  </si>
+  <si>
+    <t>609051600G</t>
+  </si>
+  <si>
+    <t>上蓋組合,FE8191-V2,又興</t>
+  </si>
+  <si>
+    <t>600095200G</t>
+  </si>
+  <si>
+    <t>前蓋面板-上,CC8130(HS),正圓</t>
+  </si>
+  <si>
+    <t>609053500G</t>
+  </si>
+  <si>
+    <t>光學透明罩組合,FD9172HVW-MRKI,富蘭</t>
+  </si>
+  <si>
+    <t>609054301G</t>
+  </si>
+  <si>
+    <t>前蓋組合,CC8371-HV,益晟</t>
+  </si>
+  <si>
+    <t>600078700G</t>
+  </si>
+  <si>
+    <t>下蓋,IP8262P-CLSS,益晟</t>
+  </si>
+  <si>
+    <t>610094220G</t>
+  </si>
+  <si>
+    <t>LED透鏡(20-40),EXIR,又興</t>
+  </si>
+  <si>
+    <t>有氣泡X1</t>
+  </si>
+  <si>
+    <t>600081600G</t>
+  </si>
+  <si>
+    <t>上蓋,IP8155/65HP,王派</t>
+  </si>
+  <si>
+    <t>609046900G</t>
+  </si>
+  <si>
+    <t>前蓋組合,IB9370-EHT-MEGA,車鋁</t>
+  </si>
+  <si>
+    <t>600111900G</t>
+  </si>
+  <si>
+    <t>鏡頭前蓋組,SD9366,高譽</t>
+  </si>
+  <si>
+    <t>602035500G</t>
+  </si>
+  <si>
+    <t>鏡頭座,IP9170-HP-MEGA,TBD</t>
+  </si>
+  <si>
+    <t>固定點斷裂X1</t>
   </si>
   <si>
     <t>600115800G</t>
@@ -584,88 +632,10 @@
     <t>光學透明罩,FD9170-HT-MEGA,趙城</t>
   </si>
   <si>
-    <t>631214900G</t>
-  </si>
-  <si>
-    <t>CMOS BUS 線材,FD8362E,萬旭</t>
-  </si>
-  <si>
-    <t>609051600G</t>
-  </si>
-  <si>
-    <t>上蓋組合,FE8191-V2,又興</t>
-  </si>
-  <si>
-    <t>600095200G</t>
-  </si>
-  <si>
-    <t>前蓋面板-上,CC8130(HS),正圓</t>
-  </si>
-  <si>
-    <t>600112800G</t>
-  </si>
-  <si>
-    <t>上蓋,ND9541P,雄業</t>
-  </si>
-  <si>
-    <t>610094220G</t>
-  </si>
-  <si>
-    <t>LED透鏡(20-40),EXIR,又興</t>
-  </si>
-  <si>
-    <t>有氣泡X1有氣泡X1有氣泡X1有氣泡X1</t>
-  </si>
-  <si>
-    <t>600078700G</t>
-  </si>
-  <si>
-    <t>下蓋,IP8262P-CLSS,益晟</t>
-  </si>
-  <si>
-    <t>609054301G</t>
-  </si>
-  <si>
-    <t>前蓋組合,CC8371-HV,益晟</t>
-  </si>
-  <si>
-    <t>600081600G</t>
-  </si>
-  <si>
-    <t>上蓋,IP8155/65HP,王派</t>
-  </si>
-  <si>
-    <t>600112100G</t>
-  </si>
-  <si>
-    <t>鋁擠型,IB9370-EHT-MEGA,王派</t>
-  </si>
-  <si>
-    <t>軌道不良X1軌道不良X1軌道不良X1軌道不良X1</t>
-  </si>
-  <si>
-    <t>600082400G</t>
-  </si>
-  <si>
-    <t>光學透明罩,FD8371V,趙城</t>
-  </si>
-  <si>
-    <t>600111900G</t>
-  </si>
-  <si>
-    <t>鏡頭前蓋組,SD9366,高譽</t>
-  </si>
-  <si>
-    <t>609047900G</t>
-  </si>
-  <si>
-    <t>IR LED後蓋組合,SD9366,高譽</t>
-  </si>
-  <si>
-    <t>609053500G</t>
-  </si>
-  <si>
-    <t>光學透明罩組合,FD9172HVW-MRKI,富蘭</t>
+    <t>609040710G</t>
+  </si>
+  <si>
+    <t>上蓋組合,FD9371(有孔),廣達鑫</t>
   </si>
   <si>
     <t>602039700G</t>
@@ -674,31 +644,22 @@
     <t>鏡頭座,FD8365,廣達鑫</t>
   </si>
   <si>
-    <t>609046900G</t>
-  </si>
-  <si>
-    <t>前蓋組合,IB9370-EHT-MEGA,車鋁</t>
-  </si>
-  <si>
-    <t>609040710G</t>
-  </si>
-  <si>
-    <t>上蓋組合,FD9371(有孔),廣達鑫</t>
-  </si>
-  <si>
     <t>602043400G</t>
   </si>
   <si>
     <t>鏡頭組支架,MA8391-ETV,伸遠</t>
   </si>
   <si>
-    <t>602035500G</t>
-  </si>
-  <si>
-    <t>鏡頭座,IP9170-HP-MEGA,TBD</t>
-  </si>
-  <si>
-    <t>固定點斷裂X1固定點斷裂X1固定點斷裂X1固定點斷裂X1</t>
+    <t>602034101G</t>
+  </si>
+  <si>
+    <t>水平旋轉座組,SD9366,高譽</t>
+  </si>
+  <si>
+    <t>602034000G</t>
+  </si>
+  <si>
+    <t>垂直旋轉座組,SD9366,高譽</t>
   </si>
   <si>
     <t>602047500G</t>
@@ -713,18 +674,6 @@
     <t>下蓋組合,MD7530/60,鋁祥發</t>
   </si>
   <si>
-    <t>602034101G</t>
-  </si>
-  <si>
-    <t>水平旋轉座組,SD9366,高譽</t>
-  </si>
-  <si>
-    <t>602034000G</t>
-  </si>
-  <si>
-    <t>垂直旋轉座組,SD9366,高譽</t>
-  </si>
-  <si>
     <t>600069000G</t>
   </si>
   <si>
@@ -737,6 +686,18 @@
     <t>鏡頭支架,SC8132,益晟</t>
   </si>
   <si>
+    <t>602021401G</t>
+  </si>
+  <si>
+    <t>固定支架,MS8391,益晟</t>
+  </si>
+  <si>
+    <t>602014911G</t>
+  </si>
+  <si>
+    <t>鏡頭前座,MD8531H(4.2MM),凱明</t>
+  </si>
+  <si>
     <t>609029200G</t>
   </si>
   <si>
@@ -749,13 +710,13 @@
     <t>上蓋組合,FE8191,又興</t>
   </si>
   <si>
-    <t>支架斷裂X1支架斷裂X1支架斷裂X1支架斷裂X1</t>
-  </si>
-  <si>
-    <t>602021401G</t>
-  </si>
-  <si>
-    <t>固定支架,MS8391,益晟</t>
+    <t>支架斷裂X1</t>
+  </si>
+  <si>
+    <t>600141700G</t>
+  </si>
+  <si>
+    <t>鏡頭前蓋組,SD9366-EH-CLSS,高譽</t>
   </si>
   <si>
     <t>609033200G</t>
@@ -770,22 +731,16 @@
     <t>上蓋組合,FE8181V-VRNT,益晟</t>
   </si>
   <si>
-    <t>602014911G</t>
-  </si>
-  <si>
-    <t>鏡頭前座,MD8531H(4.2MM),凱明</t>
-  </si>
-  <si>
     <t>609036000G</t>
   </si>
   <si>
     <t>上蓋組合,FE9381-EHV,廣達鑫</t>
   </si>
   <si>
-    <t>600141700G</t>
-  </si>
-  <si>
-    <t>鏡頭前蓋組,SD9366-EH-CLSS,高譽</t>
+    <t>600134000G</t>
+  </si>
+  <si>
+    <t>光學透明罩,FD9173HVW-MRKI,富蘭</t>
   </si>
   <si>
     <t>609036300G</t>
@@ -794,7 +749,7 @@
     <t>下蓋組合,FE9381-EHV,廣達鑫</t>
   </si>
   <si>
-    <t>孔位不對X1孔位不對X1孔位不對X1孔位不對X1</t>
+    <t>孔位不對X1</t>
   </si>
   <si>
     <t>609036901G</t>
@@ -809,43 +764,31 @@
     <t>鏡頭前蓋模組組合,SD9364-EHL,鋁祥發</t>
   </si>
   <si>
-    <t>600134000G</t>
-  </si>
-  <si>
-    <t>光學透明罩,FD9173HVW-MRKI,富蘭</t>
-  </si>
-  <si>
     <t>600127700G</t>
   </si>
   <si>
     <t>鋁擠型,IZ9361-EH,鋁祥發</t>
   </si>
   <si>
+    <t>609040400G</t>
+  </si>
+  <si>
+    <t>鏡頭旋轉座,FD9171,富岡</t>
+  </si>
+  <si>
+    <t>支架過鬆X1</t>
+  </si>
+  <si>
+    <t>609040500G</t>
+  </si>
+  <si>
+    <t>鏡頭座組合,FD9371,廣達鑫</t>
+  </si>
+  <si>
     <t>609040300G</t>
   </si>
   <si>
     <t>上蓋組合,FD9171,富崗</t>
-  </si>
-  <si>
-    <t>609040400G</t>
-  </si>
-  <si>
-    <t>鏡頭旋轉座,FD9171,富岡</t>
-  </si>
-  <si>
-    <t>支架過鬆X1支架過鬆X1支架過鬆X1支架過鬆X1</t>
-  </si>
-  <si>
-    <t>609040500G</t>
-  </si>
-  <si>
-    <t>鏡頭座組合,FD9371,廣達鑫</t>
-  </si>
-  <si>
-    <t>鏡頭旋轉座組合,FD9171</t>
-  </si>
-  <si>
-    <t>鏡頭座組合,FD9371,</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S119"/>
+  <dimension ref="A1:S109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,19 +1212,19 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>279</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1315,7 +1258,7 @@
       </c>
       <c r="R2" t="s"/>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1326,19 +1269,19 @@
         <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1353,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1368,22 +1311,24 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
       <c r="S3" t="n">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1395,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1410,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1425,24 +1370,24 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S4" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1469,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1484,13 +1429,11 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>63</v>
-      </c>
-      <c r="R5" t="s">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1501,19 +1444,19 @@
         <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1525,13 +1468,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1543,24 +1486,24 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="R6" t="s">
         <v>31</v>
       </c>
       <c r="S6" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1569,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1602,22 +1545,24 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s"/>
+        <v>13</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
       <c r="S7" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1629,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1644,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1659,34 +1604,36 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s"/>
+        <v>9</v>
+      </c>
+      <c r="R8" t="s">
+        <v>37</v>
+      </c>
       <c r="S8" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1698,13 +1645,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1716,27 +1663,25 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>28</v>
-      </c>
-      <c r="R9" t="s">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1760,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1775,27 +1720,27 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="S10" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1804,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1834,24 +1779,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>36</v>
-      </c>
-      <c r="R11" t="s">
-        <v>43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1863,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1878,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1897,21 +1840,21 @@
       </c>
       <c r="R12" t="s"/>
       <c r="S12" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1950,25 +1893,27 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s"/>
+        <v>7</v>
+      </c>
+      <c r="R13" t="s">
+        <v>49</v>
+      </c>
       <c r="S13" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1977,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1992,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2007,36 +1952,34 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>8</v>
-      </c>
-      <c r="R14" t="s">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2051,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2066,22 +2009,24 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>54</v>
+      </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2090,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2111,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2123,22 +2068,24 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R16" t="s">
+        <v>57</v>
+      </c>
       <c r="S16" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C17" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2147,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2156,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2180,36 +2127,34 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>16</v>
-      </c>
-      <c r="R17" t="s">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2224,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2239,24 +2184,24 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S18" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2265,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>4</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>24</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2302,18 +2247,18 @@
       </c>
       <c r="R19" t="s"/>
       <c r="S19" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C20" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2325,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2355,24 +2300,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>28</v>
-      </c>
-      <c r="R20" t="s">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2399,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2418,18 +2361,18 @@
       </c>
       <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2441,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2459,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2475,18 +2418,18 @@
       </c>
       <c r="R22" t="s"/>
       <c r="S22" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2495,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2516,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2532,18 +2475,18 @@
       </c>
       <c r="R23" t="s"/>
       <c r="S23" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2555,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2567,13 +2510,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2589,18 +2532,18 @@
       </c>
       <c r="R24" t="s"/>
       <c r="S24" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2612,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2627,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2642,13 +2585,11 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>24</v>
-      </c>
-      <c r="R25" t="s">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2659,7 +2600,7 @@
         <v>78</v>
       </c>
       <c r="C26" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2671,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2686,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2705,7 +2646,7 @@
       </c>
       <c r="R26" t="s"/>
       <c r="S26" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2716,7 +2657,7 @@
         <v>80</v>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2725,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2746,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2762,7 +2703,7 @@
       </c>
       <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2773,7 +2714,7 @@
         <v>82</v>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2785,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2797,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2815,28 +2756,30 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R28" t="s">
+        <v>83</v>
+      </c>
       <c r="S28" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2860,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2872,22 +2815,24 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R29" t="s">
+        <v>86</v>
+      </c>
       <c r="S29" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2905,48 +2850,46 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
         <v>4</v>
-      </c>
-      <c r="L30" t="n">
-        <v>12</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="s">
-        <v>87</v>
-      </c>
-      <c r="S30" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2958,13 +2901,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2973,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2992,24 +2935,24 @@
       </c>
       <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3033,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3049,36 +2992,36 @@
       </c>
       <c r="R32" t="s"/>
       <c r="S32" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3102,25 +3045,27 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R33" t="s">
+        <v>54</v>
+      </c>
       <c r="S33" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3144,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3163,18 +3108,18 @@
       </c>
       <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C35" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3186,123 +3131,123 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="s">
+        <v>99</v>
+      </c>
+      <c r="S35" t="n">
         <v>4</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C36" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
         <v>4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>8</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="s">
-        <v>100</v>
-      </c>
-      <c r="S36" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3332,13 +3277,11 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R37" t="s">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3349,37 +3292,37 @@
         <v>105</v>
       </c>
       <c r="C38" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>4</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>8</v>
-      </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3395,7 +3338,7 @@
       </c>
       <c r="R38" t="s"/>
       <c r="S38" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3406,7 +3349,7 @@
         <v>107</v>
       </c>
       <c r="C39" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3418,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3430,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3452,7 +3395,7 @@
       </c>
       <c r="R39" t="s"/>
       <c r="S39" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3463,19 +3406,19 @@
         <v>109</v>
       </c>
       <c r="C40" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3493,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3505,13 +3448,11 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="s">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R40" t="s"/>
       <c r="S40" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3522,19 +3463,19 @@
         <v>111</v>
       </c>
       <c r="C41" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3546,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -3568,7 +3509,7 @@
       </c>
       <c r="R41" t="s"/>
       <c r="S41" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3579,7 +3520,7 @@
         <v>113</v>
       </c>
       <c r="C42" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3591,13 +3532,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3609,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3625,7 +3566,7 @@
       </c>
       <c r="R42" t="s"/>
       <c r="S42" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3636,7 +3577,7 @@
         <v>115</v>
       </c>
       <c r="C43" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3648,13 +3589,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3666,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3682,7 +3623,7 @@
       </c>
       <c r="R43" t="s"/>
       <c r="S43" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -3693,7 +3634,7 @@
         <v>117</v>
       </c>
       <c r="C44" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3711,13 +3652,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -3739,7 +3680,7 @@
       </c>
       <c r="R44" t="s"/>
       <c r="S44" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3750,7 +3691,7 @@
         <v>119</v>
       </c>
       <c r="C45" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -3762,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3777,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3792,22 +3733,24 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R45" t="s">
+        <v>120</v>
+      </c>
       <c r="S45" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C46" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -3819,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3834,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -3853,18 +3796,18 @@
       </c>
       <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C47" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -3876,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3897,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3910,24 +3853,24 @@
       </c>
       <c r="R47" t="s"/>
       <c r="S47" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C48" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -3939,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -3967,18 +3910,18 @@
       </c>
       <c r="R48" t="s"/>
       <c r="S48" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C49" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -3990,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4002,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -4020,13 +3963,11 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>12</v>
-      </c>
-      <c r="R49" t="s">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -4037,7 +3978,7 @@
         <v>130</v>
       </c>
       <c r="C50" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -4049,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4064,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -4083,7 +4024,7 @@
       </c>
       <c r="R50" t="s"/>
       <c r="S50" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -4094,7 +4035,7 @@
         <v>132</v>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -4121,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -4140,7 +4081,7 @@
       </c>
       <c r="R51" t="s"/>
       <c r="S51" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -4151,13 +4092,13 @@
         <v>134</v>
       </c>
       <c r="C52" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -4197,7 +4138,7 @@
       </c>
       <c r="R52" t="s"/>
       <c r="S52" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -4208,7 +4149,7 @@
         <v>136</v>
       </c>
       <c r="C53" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -4220,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4238,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -4254,7 +4195,7 @@
       </c>
       <c r="R53" t="s"/>
       <c r="S53" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -4265,7 +4206,7 @@
         <v>138</v>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -4274,10 +4215,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4289,10 +4230,10 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -4311,7 +4252,7 @@
       </c>
       <c r="R54" t="s"/>
       <c r="S54" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4322,7 +4263,7 @@
         <v>140</v>
       </c>
       <c r="C55" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -4334,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4346,10 +4287,10 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -4368,7 +4309,7 @@
       </c>
       <c r="R55" t="s"/>
       <c r="S55" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4379,16 +4320,16 @@
         <v>142</v>
       </c>
       <c r="C56" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -4425,7 +4366,7 @@
       </c>
       <c r="R56" t="s"/>
       <c r="S56" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4436,13 +4377,13 @@
         <v>144</v>
       </c>
       <c r="C57" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -4454,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -4478,22 +4419,24 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R57" t="s">
+        <v>145</v>
+      </c>
       <c r="S57" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C58" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -4505,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -4520,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -4539,27 +4482,27 @@
       </c>
       <c r="R58" t="s"/>
       <c r="S58" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C59" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -4596,18 +4539,18 @@
       </c>
       <c r="R59" t="s"/>
       <c r="S59" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C60" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -4625,16 +4568,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -4653,18 +4596,18 @@
       </c>
       <c r="R60" t="s"/>
       <c r="S60" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C61" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -4691,10 +4634,10 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -4710,18 +4653,18 @@
       </c>
       <c r="R61" t="s"/>
       <c r="S61" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C62" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -4730,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -4748,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -4763,22 +4706,24 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R62" t="s">
+        <v>86</v>
+      </c>
       <c r="S62" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -4805,10 +4750,10 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -4824,21 +4769,21 @@
       </c>
       <c r="R63" t="s"/>
       <c r="S63" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -4859,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -4881,18 +4826,18 @@
       </c>
       <c r="R64" t="s"/>
       <c r="S64" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -4904,13 +4849,13 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -4922,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -4938,21 +4883,21 @@
       </c>
       <c r="R65" t="s"/>
       <c r="S65" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C66" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -4967,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -4991,22 +4936,24 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R66" t="s">
+        <v>164</v>
+      </c>
       <c r="S66" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -5024,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -5048,24 +4995,24 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R67" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S67" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C68" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -5083,16 +5030,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -5107,24 +5054,22 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>4</v>
-      </c>
-      <c r="R68" t="s">
-        <v>168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R68" t="s"/>
       <c r="S68" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C69" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -5151,13 +5096,13 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5166,24 +5111,22 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>4</v>
-      </c>
-      <c r="R69" t="s">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R69" t="s"/>
       <c r="S69" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C70" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -5207,13 +5150,13 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -5229,18 +5172,18 @@
       </c>
       <c r="R70" t="s"/>
       <c r="S70" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C71" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -5252,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5264,10 +5207,10 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -5286,18 +5229,18 @@
       </c>
       <c r="R71" t="s"/>
       <c r="S71" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C72" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -5327,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -5339,25 +5282,27 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R72" t="s">
+        <v>178</v>
+      </c>
       <c r="S72" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C73" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -5372,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -5396,24 +5341,22 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>4</v>
-      </c>
-      <c r="R73" t="s">
-        <v>179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R73" t="s"/>
       <c r="S73" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C74" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -5422,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -5437,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -5459,24 +5402,24 @@
       </c>
       <c r="R74" t="s"/>
       <c r="S74" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -5500,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -5516,18 +5459,18 @@
       </c>
       <c r="R75" t="s"/>
       <c r="S75" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -5545,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -5557,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -5572,8 +5515,8 @@
         <v>0</v>
       </c>
       <c r="R76" t="s"/>
-      <c r="S76" t="s">
-        <v>186</v>
+      <c r="S76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -5584,7 +5527,7 @@
         <v>188</v>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -5602,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -5630,7 +5573,7 @@
       </c>
       <c r="R77" t="s"/>
       <c r="S77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -5641,7 +5584,7 @@
         <v>190</v>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -5653,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5674,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -5687,7 +5630,7 @@
       </c>
       <c r="R78" t="s"/>
       <c r="S78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -5698,7 +5641,7 @@
         <v>192</v>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -5707,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -5740,28 +5683,30 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R79" t="s">
+        <v>193</v>
+      </c>
       <c r="S79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -5797,22 +5742,24 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
-      </c>
-      <c r="R80" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R80" t="s">
+        <v>54</v>
+      </c>
       <c r="S80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -5824,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5858,24 +5805,24 @@
       </c>
       <c r="R81" t="s"/>
       <c r="S81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -5911,13 +5858,11 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>4</v>
-      </c>
-      <c r="R82" t="s">
-        <v>199</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R82" t="s"/>
       <c r="S82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -5928,7 +5873,7 @@
         <v>201</v>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -5940,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5970,22 +5915,24 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
-      </c>
-      <c r="R83" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R83" t="s">
+        <v>202</v>
+      </c>
       <c r="S83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -6003,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -6031,24 +5978,24 @@
       </c>
       <c r="R84" t="s"/>
       <c r="S84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -6084,24 +6031,22 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>4</v>
-      </c>
-      <c r="R85" t="s">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R85" t="s"/>
       <c r="S85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -6128,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -6143,13 +6088,11 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>4</v>
-      </c>
-      <c r="R86" t="s">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R86" t="s"/>
       <c r="S86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6160,7 +6103,7 @@
         <v>210</v>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -6178,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -6187,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -6206,7 +6149,7 @@
       </c>
       <c r="R87" t="s"/>
       <c r="S87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -6217,19 +6160,19 @@
         <v>212</v>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6263,7 +6206,7 @@
       </c>
       <c r="R88" t="s"/>
       <c r="S88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6274,7 +6217,7 @@
         <v>214</v>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -6298,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -6316,11 +6259,13 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
-      </c>
-      <c r="R89" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R89" t="s">
+        <v>54</v>
+      </c>
       <c r="S89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -6331,7 +6276,7 @@
         <v>216</v>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -6343,13 +6288,13 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -6377,7 +6322,7 @@
       </c>
       <c r="R90" t="s"/>
       <c r="S90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -6388,7 +6333,7 @@
         <v>218</v>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -6415,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -6434,7 +6379,7 @@
       </c>
       <c r="R91" t="s"/>
       <c r="S91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -6445,7 +6390,7 @@
         <v>220</v>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -6457,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6491,7 +6436,7 @@
       </c>
       <c r="R92" t="s"/>
       <c r="S92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -6502,13 +6447,13 @@
         <v>222</v>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -6529,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -6548,7 +6493,7 @@
       </c>
       <c r="R93" t="s"/>
       <c r="S93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -6559,7 +6504,7 @@
         <v>224</v>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -6571,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6586,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -6605,7 +6550,7 @@
       </c>
       <c r="R94" t="s"/>
       <c r="S94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -6616,7 +6561,7 @@
         <v>226</v>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -6658,24 +6603,24 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R95" t="s">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c r="S95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -6687,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6696,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -6721,64 +6666,66 @@
       </c>
       <c r="R96" t="s"/>
       <c r="S96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="s">
         <v>231</v>
       </c>
-      <c r="C97" t="n">
-        <v>4</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0</v>
-      </c>
-      <c r="R97" t="s"/>
       <c r="S97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -6789,7 +6736,7 @@
         <v>233</v>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -6801,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6819,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -6835,7 +6782,7 @@
       </c>
       <c r="R98" t="s"/>
       <c r="S98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -6846,7 +6793,7 @@
         <v>235</v>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -6855,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -6888,13 +6835,11 @@
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>4</v>
-      </c>
-      <c r="R99" t="s">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R99" t="s"/>
       <c r="S99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -6905,7 +6850,7 @@
         <v>237</v>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -6917,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6951,7 +6896,7 @@
       </c>
       <c r="R100" t="s"/>
       <c r="S100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -6962,7 +6907,7 @@
         <v>239</v>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -6989,10 +6934,10 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -7008,7 +6953,7 @@
       </c>
       <c r="R101" t="s"/>
       <c r="S101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -7019,7 +6964,7 @@
         <v>241</v>
       </c>
       <c r="C102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -7028,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -7040,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -7065,7 +7010,7 @@
       </c>
       <c r="R102" t="s"/>
       <c r="S102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -7076,7 +7021,7 @@
         <v>243</v>
       </c>
       <c r="C103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -7118,13 +7063,13 @@
         <v>0</v>
       </c>
       <c r="Q103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R103" t="s">
         <v>244</v>
       </c>
       <c r="S103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -7135,7 +7080,7 @@
         <v>246</v>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -7147,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7162,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -7181,7 +7126,7 @@
       </c>
       <c r="R104" t="s"/>
       <c r="S104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -7192,7 +7137,7 @@
         <v>248</v>
       </c>
       <c r="C105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -7201,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -7219,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -7238,7 +7183,7 @@
       </c>
       <c r="R105" t="s"/>
       <c r="S105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -7249,19 +7194,19 @@
         <v>250</v>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7295,7 +7240,7 @@
       </c>
       <c r="R106" t="s"/>
       <c r="S106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -7306,7 +7251,7 @@
         <v>252</v>
       </c>
       <c r="C107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -7348,24 +7293,24 @@
         <v>0</v>
       </c>
       <c r="Q107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R107" t="s">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="S107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C108" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -7377,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7395,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
@@ -7411,24 +7356,24 @@
       </c>
       <c r="R108" t="s"/>
       <c r="S108" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -7452,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
@@ -7468,581 +7413,7 @@
       </c>
       <c r="R109" t="s"/>
       <c r="S109" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19">
-      <c r="A110" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C110" t="n">
-        <v>4</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0</v>
-      </c>
-      <c r="P110" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>4</v>
-      </c>
-      <c r="R110" t="s">
-        <v>259</v>
-      </c>
-      <c r="S110" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19">
-      <c r="A111" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C111" t="n">
-        <v>4</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>4</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="n">
-        <v>0</v>
-      </c>
-      <c r="P111" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>0</v>
-      </c>
-      <c r="R111" t="s"/>
-      <c r="S111" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19">
-      <c r="A112" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C112" t="n">
-        <v>4</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>4</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="n">
-        <v>0</v>
-      </c>
-      <c r="P112" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0</v>
-      </c>
-      <c r="R112" t="s"/>
-      <c r="S112" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19">
-      <c r="A113" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C113" t="n">
-        <v>4</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>4</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O113" t="n">
-        <v>0</v>
-      </c>
-      <c r="P113" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>0</v>
-      </c>
-      <c r="R113" t="s"/>
-      <c r="S113" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19">
-      <c r="A114" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C114" t="n">
-        <v>4</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>4</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0</v>
-      </c>
-      <c r="O114" t="n">
-        <v>0</v>
-      </c>
-      <c r="P114" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>0</v>
-      </c>
-      <c r="R114" t="s"/>
-      <c r="S114" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19">
-      <c r="A115" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C115" t="n">
-        <v>4</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>4</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0</v>
-      </c>
-      <c r="P115" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>0</v>
-      </c>
-      <c r="R115" t="s"/>
-      <c r="S115" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19">
-      <c r="A116" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C116" t="n">
-        <v>4</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0</v>
-      </c>
-      <c r="O116" t="n">
-        <v>0</v>
-      </c>
-      <c r="P116" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>4</v>
-      </c>
-      <c r="R116" t="s">
-        <v>272</v>
-      </c>
-      <c r="S116" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19">
-      <c r="A117" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C117" t="n">
-        <v>4</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="n">
-        <v>4</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M117" t="n">
-        <v>0</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O117" t="n">
-        <v>0</v>
-      </c>
-      <c r="P117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>0</v>
-      </c>
-      <c r="R117" t="s"/>
-      <c r="S117" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19">
-      <c r="A118" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C118" t="n">
-        <v>3</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>3</v>
-      </c>
-      <c r="M118" t="n">
-        <v>0</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0</v>
-      </c>
-      <c r="O118" t="n">
-        <v>0</v>
-      </c>
-      <c r="P118" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>0</v>
-      </c>
-      <c r="R118" t="s"/>
-      <c r="S118" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19">
-      <c r="A119" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C119" t="n">
-        <v>3</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>3</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0</v>
-      </c>
-      <c r="O119" t="n">
-        <v>0</v>
-      </c>
-      <c r="P119" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>0</v>
-      </c>
-      <c r="R119" t="s"/>
-      <c r="S119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
